--- a/posts/Top 200 Medications/top200medications.xlsx
+++ b/posts/Top 200 Medications/top200medications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlmarquez/Desktop/PharmTech/PharmTech/posts/Top 200 Medications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E403E5-6C09-CA49-87E9-ADE10C64ACB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7482AE74-3268-7446-8E01-FF513574FC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{7748411B-C955-674A-BA9C-E9F86C794A2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Answer</t>
   </si>
@@ -47,13 +47,160 @@
     <t xml:space="preserve">Brand: Prinivil. Class: ACEi. Indication: Antihypertensive. Schedule: NCLM. </t>
   </si>
   <si>
-    <t>Generic: Metformin</t>
-  </si>
-  <si>
-    <t>Brand: Glucophage. Class: Biguanide. Indication: Diabetes medication. Schedule: NCLM.</t>
-  </si>
-  <si>
     <t>Question</t>
+  </si>
+  <si>
+    <t>Generic: Metoprolol Succinate ER</t>
+  </si>
+  <si>
+    <t>Metformin</t>
+  </si>
+  <si>
+    <t>Toprol XL. Beta-blocker, Antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Glucophage, Biguanide, Diabetes medication, NCLM.</t>
+  </si>
+  <si>
+    <t>Losartan potassium</t>
+  </si>
+  <si>
+    <t>Cozaar, ARB, Antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>NCLM</t>
+  </si>
+  <si>
+    <t>Non-Controlled Legend Medication</t>
+  </si>
+  <si>
+    <t>ACEi</t>
+  </si>
+  <si>
+    <t>Angiotensin I Converting Enzyme Inhibitor</t>
+  </si>
+  <si>
+    <t>PPI</t>
+  </si>
+  <si>
+    <t>Proton Pump Inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERD </t>
+  </si>
+  <si>
+    <t>Gastroesophageal Reflux Disease</t>
+  </si>
+  <si>
+    <t>ARB</t>
+  </si>
+  <si>
+    <t>Angiotensin II Receptor Blocker</t>
+  </si>
+  <si>
+    <t>SSRI</t>
+  </si>
+  <si>
+    <t>Selective Serotonin Re-uptake inhibitor</t>
+  </si>
+  <si>
+    <t>SNRI</t>
+  </si>
+  <si>
+    <t>Serotonin Norepinephrine Re-uptake inhibitor</t>
+  </si>
+  <si>
+    <t>APAP</t>
+  </si>
+  <si>
+    <t>acetaminophen</t>
+  </si>
+  <si>
+    <t>HCTZ</t>
+  </si>
+  <si>
+    <t>Hydrochlorothiazide</t>
+  </si>
+  <si>
+    <t>H#RA</t>
+  </si>
+  <si>
+    <t>Histamine H# Receptor Antagonist</t>
+  </si>
+  <si>
+    <t>NSAID</t>
+  </si>
+  <si>
+    <t>Non-steroidal Anti-inflammatory Drug</t>
+  </si>
+  <si>
+    <t>ADHD</t>
+  </si>
+  <si>
+    <t>Attention Deficit Hyperactivity Disorder</t>
+  </si>
+  <si>
+    <t>Microzide, Thiazide diuretic, Antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Atorvastatin</t>
+  </si>
+  <si>
+    <t>Lipitor, HMG-CoA Reductase Inhibitor, Cholesterol lowering, NCLM</t>
+  </si>
+  <si>
+    <t>Amiodipine</t>
+  </si>
+  <si>
+    <t>Norvasc, Calcium Channel Blocker, Antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Omeprazole</t>
+  </si>
+  <si>
+    <t>Prilosec, PPI, Acid-Reflux/GERD, OTC and NCLM (strength)</t>
+  </si>
+  <si>
+    <t>Albuterol</t>
+  </si>
+  <si>
+    <t>ProAir HFA / Ventolin HFA, Beta agonist, Bronchodilator/asthma, NCLM</t>
+  </si>
+  <si>
+    <t>Hydrocodone/APAP</t>
+  </si>
+  <si>
+    <t>Vicodin/Norco/Lortab, Opioid analgesic combo, Pain reliever, Schedule II</t>
+  </si>
+  <si>
+    <t>Levothyroxine</t>
+  </si>
+  <si>
+    <t>Synthroid/Levoxyl, Thyroid hormone, Hypothyroidism, NCLM</t>
+  </si>
+  <si>
+    <t>Metoprolol tartate</t>
+  </si>
+  <si>
+    <t>Lopressor, Beta-blocker, Antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Simvastatin</t>
+  </si>
+  <si>
+    <t>Zocor, HMG-CoA Reductase Inhibitor, Cholesterol lowering, NCLM</t>
+  </si>
+  <si>
+    <t>Gabapentin</t>
+  </si>
+  <si>
+    <t>Neurontin, Anticonvulsant, Neuropathic pain/seizures, NCLM (Schedule V in some states)</t>
+  </si>
+  <si>
+    <t>Sertraline</t>
+  </si>
+  <si>
+    <t>Zoloft, SSRI, Antidepressant, NCLM</t>
   </si>
 </sst>
 </file>
@@ -425,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0FCFC7-BAF7-A940-AC4C-0AA1FB3561AA}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,7 +586,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -447,18 +594,218 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/posts/Top 200 Medications/top200medications.xlsx
+++ b/posts/Top 200 Medications/top200medications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlmarquez/Desktop/PharmTech/PharmTech/posts/Top 200 Medications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB76D26A-7A95-9946-B568-C5EF577B3DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5203022-8E27-7E4C-B2E2-4B157971F3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{7748411B-C955-674A-BA9C-E9F86C794A2E}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{7748411B-C955-674A-BA9C-E9F86C794A2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Answer</t>
   </si>
@@ -312,6 +312,96 @@
   </si>
   <si>
     <t>Gildess/Junel/Loestrin / Microgestin, Oral contraceptive, Pregnancy prevention/Hormone regulation, NCLM</t>
+  </si>
+  <si>
+    <t>Meloxicam</t>
+  </si>
+  <si>
+    <t>Mobic, NSAID, Pain/Inflammation Relief, NCLM</t>
+  </si>
+  <si>
+    <t>Azithromycin</t>
+  </si>
+  <si>
+    <t>Zithromax, Macrolide Antibiotic, Bacterial infection, NCLM</t>
+  </si>
+  <si>
+    <t>Metronidazole</t>
+  </si>
+  <si>
+    <t>Flagyl, antibiotic, Bacterial infection, NCLM</t>
+  </si>
+  <si>
+    <t>Loratadine</t>
+  </si>
+  <si>
+    <t>Claritin, H1RA/anti-histamine, Allergies, OTC</t>
+  </si>
+  <si>
+    <t>Lamotrigine</t>
+  </si>
+  <si>
+    <t>Lamictal, Anticonvulsant, Siezure prevention, NCLM</t>
+  </si>
+  <si>
+    <t>Glipizide</t>
+  </si>
+  <si>
+    <t>Glucotrol, Sulfonlyurea, Diabetes agent, NCLM</t>
+  </si>
+  <si>
+    <t>Duloxetine</t>
+  </si>
+  <si>
+    <t>Cymbalta, SNRI, Antidepressant, NCLM</t>
+  </si>
+  <si>
+    <t>Methylphenidate</t>
+  </si>
+  <si>
+    <t>Ritalin/Concerta, Stimulant, ADHD, Schedule II</t>
+  </si>
+  <si>
+    <t>Lorazepam</t>
+  </si>
+  <si>
+    <t>Ativan, Benzodiazepine, Anxiety/Sedative, Schedule IV</t>
+  </si>
+  <si>
+    <t>Estradiol</t>
+  </si>
+  <si>
+    <t>Estrace, Female Hormone, Hormone Supplement, NCLM</t>
+  </si>
+  <si>
+    <t>Allopurinol</t>
+  </si>
+  <si>
+    <t>Zyloprim, Xanthine Oxidase Inhibitor, Gout treatment, NCLM</t>
+  </si>
+  <si>
+    <t>Ergocalciferol</t>
+  </si>
+  <si>
+    <t>Deltalin, Vitamin D supplement, Vitamin D Supplement, NCLM</t>
+  </si>
+  <si>
+    <t>Insulin Aspart</t>
+  </si>
+  <si>
+    <t>Novolog, Rapid Acting Insulin, Diabetes Agent, NCLM</t>
+  </si>
+  <si>
+    <t>Ethinyl Estradiol / Norgestimate</t>
+  </si>
+  <si>
+    <t>Ortho Tri-Cylen, oral contraceptive, Pregnancy prevention/hormone regulation, NCLM</t>
+  </si>
+  <si>
+    <t>Glimepiride</t>
+  </si>
+  <si>
+    <t>Amaryl, Sulfonylurea, Diabetes agent, NCLM</t>
   </si>
 </sst>
 </file>
@@ -690,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0FCFC7-BAF7-A940-AC4C-0AA1FB3561AA}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1070,6 +1160,126 @@
         <v>91</v>
       </c>
     </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/posts/Top 200 Medications/top200medications.xlsx
+++ b/posts/Top 200 Medications/top200medications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlmarquez/Desktop/PharmTech/PharmTech/posts/Top 200 Medications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5203022-8E27-7E4C-B2E2-4B157971F3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDDC9D8-ABCA-5344-94F7-411F72A151E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{7748411B-C955-674A-BA9C-E9F86C794A2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>Answer</t>
   </si>
@@ -402,6 +402,276 @@
   </si>
   <si>
     <t>Amaryl, Sulfonylurea, Diabetes agent, NCLM</t>
+  </si>
+  <si>
+    <t>Flucticasone/Salmeterol</t>
+  </si>
+  <si>
+    <t>Advair Diskus, Inhaled Corticosteroid/Long acting beta agonist, Asthma treatment, NCLM</t>
+  </si>
+  <si>
+    <t>Cetirizine</t>
+  </si>
+  <si>
+    <t>Zyrtec, H1RA/Anti-histamine, Allergies, OTC</t>
+  </si>
+  <si>
+    <t>Losartan / Hydrochlorothiazide</t>
+  </si>
+  <si>
+    <t>Hyzaar, ARB/Thiazide Diuretic, Antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Paroxetine</t>
+  </si>
+  <si>
+    <t>Paxil, SSRI, Antidepressant, NCLM</t>
+  </si>
+  <si>
+    <t>Spironolactone</t>
+  </si>
+  <si>
+    <t>Aldactone, Potassium-Sparing Diuretic, Antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Folic acid</t>
+  </si>
+  <si>
+    <t>Folate, Vitamin Supplement, Vitamin Supplement, NCLM</t>
+  </si>
+  <si>
+    <t>Sumatriptan</t>
+  </si>
+  <si>
+    <t>Imitrex, 5HT1 Agonist, Migraine treatment, NCLM</t>
+  </si>
+  <si>
+    <t>Ethinyl Estradiol / Drosperinone</t>
+  </si>
+  <si>
+    <t>Yaz/Yazmin/Gianvi / Nikki, oral contraceptive, Pregnancy prevention/hormone regulation, NCLM</t>
+  </si>
+  <si>
+    <t>Hydroxyzine</t>
+  </si>
+  <si>
+    <t>Atarax/Vistaril, H1RA/antihistamine, Allergies, NCLM</t>
+  </si>
+  <si>
+    <t>Oxybutynin</t>
+  </si>
+  <si>
+    <t>Ditropan, anti-cholinergic, Overactive bladder, NCLM</t>
+  </si>
+  <si>
+    <t>Donepezil</t>
+  </si>
+  <si>
+    <t>Aricept, Cholinesterase inhibitor, Alzheimer's, NCLM</t>
+  </si>
+  <si>
+    <t>Hydroxychloroquine</t>
+  </si>
+  <si>
+    <t>Plaquenil, Anti-malarial, Anti-malarial/Rheumatoid arthritis / Lupus, NCLM</t>
+  </si>
+  <si>
+    <t>Ramipril</t>
+  </si>
+  <si>
+    <t>Altace, ACEi, Antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Prednisolone</t>
+  </si>
+  <si>
+    <t>OraPred, Corticosteroid, Anti-inflammatory, NCLM</t>
+  </si>
+  <si>
+    <t>Thyroid Extract</t>
+  </si>
+  <si>
+    <t>Armour Thyroid, Thyroid hormone, Hypothyroidism, NCLM</t>
+  </si>
+  <si>
+    <t>Fenofibrate</t>
+  </si>
+  <si>
+    <t>Tricor, Fibric Acid derivative, Cholesterol lowering, NCLM</t>
+  </si>
+  <si>
+    <t>Naproxen</t>
+  </si>
+  <si>
+    <t>Aleve, NSAID, Pain/Inflammation Relief, OTC and NCLM (strength)</t>
+  </si>
+  <si>
+    <t>Pregabalin</t>
+  </si>
+  <si>
+    <t>Lyrica, Anticonvulsant, Neuropathic Pain/Seizures, Schedule V</t>
+  </si>
+  <si>
+    <t>Insulin Regular</t>
+  </si>
+  <si>
+    <t>Humulin R/Novolin R, Short acting insulin, Diabetes agent, NCLM</t>
+  </si>
+  <si>
+    <t>Budesonide / Formoterol</t>
+  </si>
+  <si>
+    <t>Symbicort, Inhaled corticosteroid/Long acting Beta agonist, Asthma treatment, NCLM</t>
+  </si>
+  <si>
+    <t>Triamterene/HCTZ</t>
+  </si>
+  <si>
+    <t>Dyazide/Maxzide, Potassium Sparing Diuretic/Thiazide, Antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Cephalexin</t>
+  </si>
+  <si>
+    <t>Keflex, Cesphalosporin antibiotic, Bacterial Infection, NCLM</t>
+  </si>
+  <si>
+    <t>Triamcinolone</t>
+  </si>
+  <si>
+    <t>Kenalog, Corticosteroid, anti-inflammatory, NCLM</t>
+  </si>
+  <si>
+    <t>Benazepril</t>
+  </si>
+  <si>
+    <t>Lotensin, ACEi, Antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Hydralazine</t>
+  </si>
+  <si>
+    <t>Apresoline, Vasodilator, Angina/Heart Failure, NCLM</t>
+  </si>
+  <si>
+    <t>Guanfacine</t>
+  </si>
+  <si>
+    <t>Tenex, Alpha2-Agonist, ADHD/Antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Testosterone</t>
+  </si>
+  <si>
+    <t>AndroGel, Male Hormone Therapy, Hormone Therapy, Schedule III</t>
+  </si>
+  <si>
+    <t>Valsartan/HCTZ</t>
+  </si>
+  <si>
+    <t>Diovan HCT, ARB/Thiazide Diuretic, Antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Diazepam</t>
+  </si>
+  <si>
+    <t>Valium, Benzodiazepine, Sedative/Anti-Anxiety, CIV</t>
+  </si>
+  <si>
+    <t>Ethinyl Estradiol / Levonorgestrel</t>
+  </si>
+  <si>
+    <t>Amethia/Amethyst, Oral contraceptive, Pregnancy prevention/hormone regulation, NCLM</t>
+  </si>
+  <si>
+    <t>Diltiazem</t>
+  </si>
+  <si>
+    <t>Cardizem, Calcium channel blocker, antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Quetiapine Fumarate</t>
+  </si>
+  <si>
+    <t>Seroquel, Antipsychotic, mood disorders, NCLM</t>
+  </si>
+  <si>
+    <t>Topiramate</t>
+  </si>
+  <si>
+    <t>Topamax, Antoconvulsant, Seizures/Migraines, NCLM</t>
+  </si>
+  <si>
+    <t>Bacitracine/Neomycin / Polymyxin B</t>
+  </si>
+  <si>
+    <t>Neosporin, Triple Antibiotic, Bacterial infection, OTC</t>
+  </si>
+  <si>
+    <t>Clonidine</t>
+  </si>
+  <si>
+    <t>Catapres, Alpha-2 Agonist, Antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Celecoxib</t>
+  </si>
+  <si>
+    <t>Celebrex, COX-2 Selective NSAID, Pain/Inflammatio Relief, NCLM</t>
+  </si>
+  <si>
+    <t>Ciprofloxacin</t>
+  </si>
+  <si>
+    <t>Cipro, Fluoroquinolone antibiotic, Bacterial infection, NCLM</t>
+  </si>
+  <si>
+    <t>Ropinirole</t>
+  </si>
+  <si>
+    <t>Requip, Dopamine Agonist, Parkinson's treatment, NCLM</t>
+  </si>
+  <si>
+    <t>Rivaroxaban</t>
+  </si>
+  <si>
+    <t>Xarelto, Factor Xa Inhibitor, Anticoagulant/Blood thinner, NCLM</t>
+  </si>
+  <si>
+    <t>Levetiracetam</t>
+  </si>
+  <si>
+    <t>Keppra, Anti-Convulsant, Seizures, NCLM</t>
+  </si>
+  <si>
+    <t>Clindamycin</t>
+  </si>
+  <si>
+    <t>Cleocin, Lincomycin Antibiotic, Bacterial Infection, NCLM</t>
+  </si>
+  <si>
+    <t>Gemfibrozil</t>
+  </si>
+  <si>
+    <t>Lopid, Fibrate Derivative, Cholesterol lowering, NCLM</t>
+  </si>
+  <si>
+    <t>Metformin/Sitagliptin</t>
+  </si>
+  <si>
+    <t>Janumet, Biguanide/DPA-4 inhibitor, Diabetes agent, NCLM</t>
+  </si>
+  <si>
+    <t>Baclofen</t>
+  </si>
+  <si>
+    <t>Lioresal, Muscle Relaxant, Muscle Relaxant, NCLM</t>
+  </si>
+  <si>
+    <t>Norethindrone</t>
+  </si>
+  <si>
+    <t>Camila/Heather, Oral contraceptive, Pregnancy prevention/hormone regulation, NCLM</t>
   </si>
 </sst>
 </file>
@@ -780,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0FCFC7-BAF7-A940-AC4C-0AA1FB3561AA}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1280,6 +1550,366 @@
         <v>121</v>
       </c>
     </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/posts/Top 200 Medications/top200medications.xlsx
+++ b/posts/Top 200 Medications/top200medications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlmarquez/Desktop/PharmTech/PharmTech/posts/Top 200 Medications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDDC9D8-ABCA-5344-94F7-411F72A151E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E719CD-4C63-AE4D-8D72-123877F4202C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{7748411B-C955-674A-BA9C-E9F86C794A2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
   <si>
     <t>Answer</t>
   </si>
@@ -672,6 +672,108 @@
   </si>
   <si>
     <t>Camila/Heather, Oral contraceptive, Pregnancy prevention/hormone regulation, NCLM</t>
+  </si>
+  <si>
+    <t>Buspirone</t>
+  </si>
+  <si>
+    <t>Buspar, Anti-anxiety, Anxiety, NCLM</t>
+  </si>
+  <si>
+    <t>Latanoprost</t>
+  </si>
+  <si>
+    <t>Xalatan, Prostaglandin Analog, Glaucoma Treatment, NCLM</t>
+  </si>
+  <si>
+    <t>Tiotropium</t>
+  </si>
+  <si>
+    <t>Spiriva, Anti-cholinergics, Bronchodilator/Asthma Treatment, NCLM</t>
+  </si>
+  <si>
+    <t>Ondansetron</t>
+  </si>
+  <si>
+    <t>Zofran, 5HT3 Antagonist, Nausea/Vomiting, NCLM</t>
+  </si>
+  <si>
+    <t>Lovastatin</t>
+  </si>
+  <si>
+    <t>Mevacor, HMG-CoA Reductase Inhibitor, Cholesterol lowering, NCLM</t>
+  </si>
+  <si>
+    <t>Isosorbide</t>
+  </si>
+  <si>
+    <t>Imdur, Nitrate, Angina/Heart Failure, NCLM</t>
+  </si>
+  <si>
+    <t>Aripiprazole</t>
+  </si>
+  <si>
+    <t>Abilify, Anti-Psychotic, Mood disorders, NCLM</t>
+  </si>
+  <si>
+    <t>Doxycycline</t>
+  </si>
+  <si>
+    <t>Doryx, Tetracycline Antibiotic, Bacterial Infections, NCLM</t>
+  </si>
+  <si>
+    <t>Insulin Detemir</t>
+  </si>
+  <si>
+    <t>Levemir, Long-acting insulin, Diabetes agent, NCLM</t>
+  </si>
+  <si>
+    <t>Famotidine</t>
+  </si>
+  <si>
+    <t>Pepcid, H2RA, Acid Reflux/GERD, OTC</t>
+  </si>
+  <si>
+    <t>Temazepam</t>
+  </si>
+  <si>
+    <t>Restoril, Benzodiazepine, Sedative/Anti anxiety, Schedule IV</t>
+  </si>
+  <si>
+    <t>Nitroglycerin</t>
+  </si>
+  <si>
+    <t>Nitro-STAT, Nitrate Derivative, Angina/Heart Failure, NCLM</t>
+  </si>
+  <si>
+    <t>Nebivolol</t>
+  </si>
+  <si>
+    <t>Bystolic, Beta-Blocker, Anti-hypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Verapamil</t>
+  </si>
+  <si>
+    <t>Verelan, Calcium channel blocker, antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Timolol</t>
+  </si>
+  <si>
+    <t>Timoptic, Beta-blocker, Glaucoma, NCLM</t>
+  </si>
+  <si>
+    <t>Valsartan</t>
+  </si>
+  <si>
+    <t>Diovan, ARB, Antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Finasteride</t>
+  </si>
+  <si>
+    <t>Proscar, 5-Alpha Reductase Inhibitor, Enlarged Prostate, NCLM</t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0FCFC7-BAF7-A940-AC4C-0AA1FB3561AA}">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1910,6 +2012,142 @@
         <v>211</v>
       </c>
     </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/posts/Top 200 Medications/top200medications.xlsx
+++ b/posts/Top 200 Medications/top200medications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlmarquez/Desktop/PharmTech/PharmTech/posts/Top 200 Medications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E719CD-4C63-AE4D-8D72-123877F4202C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D0240E-7B1E-584A-9D0D-9BF6A4474281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{7748411B-C955-674A-BA9C-E9F86C794A2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="332">
   <si>
     <t>Answer</t>
   </si>
@@ -774,6 +774,264 @@
   </si>
   <si>
     <t>Proscar, 5-Alpha Reductase Inhibitor, Enlarged Prostate, NCLM</t>
+  </si>
+  <si>
+    <t>Amitriptyline</t>
+  </si>
+  <si>
+    <t>Elavil, Tri-Cyclic Antidepressant, Depression/Sleep, NCLM</t>
+  </si>
+  <si>
+    <t>Esomeprazole</t>
+  </si>
+  <si>
+    <t>Nexium, PPI, Acid Reflux/GERD, OTC and NCLM (strength)</t>
+  </si>
+  <si>
+    <t>Tizanidine</t>
+  </si>
+  <si>
+    <t>Zanaflex, Muscle Relaxant, Muscle Relaxant, NCLM</t>
+  </si>
+  <si>
+    <t>Amoxicillin/Clavulanate Potassium</t>
+  </si>
+  <si>
+    <t>Augmentin, Penicillin Antibiotic, Bacterial Infection, NCLM</t>
+  </si>
+  <si>
+    <t>Methotrexate</t>
+  </si>
+  <si>
+    <t>Rheumatrex, Anti-Metabolite, Rheumatoid arthritis, Psoriasis, NCLM</t>
+  </si>
+  <si>
+    <t>Hydrocodone Bitartate</t>
+  </si>
+  <si>
+    <t>N/A, Opioid Analgesic, Pain Relief, Schedule II</t>
+  </si>
+  <si>
+    <t>Mirtazapine</t>
+  </si>
+  <si>
+    <t>Remeron, Antidepressant, Depression, NCLM</t>
+  </si>
+  <si>
+    <t>Nifedipine</t>
+  </si>
+  <si>
+    <t>ProCardia, Calcium Channel Blocker, Antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Promethazine</t>
+  </si>
+  <si>
+    <t>Phenergan, H1RA/Anti-Histamine, Nausea/Vomiting / Allergies, NCLM</t>
+  </si>
+  <si>
+    <t>Benzonatate</t>
+  </si>
+  <si>
+    <t>Tessalon Perles, Antitussive, Cough, NCLM</t>
+  </si>
+  <si>
+    <t>Memantine</t>
+  </si>
+  <si>
+    <t>Namenda, NMDA Receptor Antagonist, Alzheimer's, NCLM</t>
+  </si>
+  <si>
+    <t>Doxazosin</t>
+  </si>
+  <si>
+    <t>Cardura, Alpha-1 Blocker, Enlraged Prostate/Anti hypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Ezetimibe</t>
+  </si>
+  <si>
+    <t>Zetia, Cholesterol Absorption Inhibitor, Cholesterol Lowering, NCLM</t>
+  </si>
+  <si>
+    <t>Alendronate</t>
+  </si>
+  <si>
+    <t>Fosamax, Bisphosphonate, Osteoporosis, NCLM</t>
+  </si>
+  <si>
+    <t>Lisdexamfetamine</t>
+  </si>
+  <si>
+    <t>Vyvanse, Stimulant, ADHD, Schedule II</t>
+  </si>
+  <si>
+    <t>Ferrous Sulfate</t>
+  </si>
+  <si>
+    <t>Feosol, Iron supplement, Iron supplement, NCLM</t>
+  </si>
+  <si>
+    <t>Apixaban</t>
+  </si>
+  <si>
+    <t>Eliquis, Factor Xa inhibitor, Anticoagulation/Blood thinner, NCLM</t>
+  </si>
+  <si>
+    <t>Diclofenac</t>
+  </si>
+  <si>
+    <t>Voltaren, NSAID, Pain/Inflammation Relief, OTC and NCLM as tablet</t>
+  </si>
+  <si>
+    <t>Sulfamethoxazole/TMP</t>
+  </si>
+  <si>
+    <t>Bactrim, Sulfonamide Antibiotic, Bacterial Infection, NCLM</t>
+  </si>
+  <si>
+    <t>Enalapril</t>
+  </si>
+  <si>
+    <t>Vasotec, ACEi, Antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Docusate</t>
+  </si>
+  <si>
+    <t>Colase, Stool softener, stool softener, OTC</t>
+  </si>
+  <si>
+    <t>Insulin Lispro</t>
+  </si>
+  <si>
+    <t>Humalog, Short-acting insulin, Diabetes agents, NCLM</t>
+  </si>
+  <si>
+    <t>Pioglitazone</t>
+  </si>
+  <si>
+    <t>Actos, Thiazolidinedione, Diabetes agent, NCLM</t>
+  </si>
+  <si>
+    <t>Valacyclovir</t>
+  </si>
+  <si>
+    <t>Valtrex, Anti-viral, Viral infections, NCLM</t>
+  </si>
+  <si>
+    <t>Nirmatrelvir/ritonavir</t>
+  </si>
+  <si>
+    <t>Paxlovid, Antiviral, COVID, NCLM</t>
+  </si>
+  <si>
+    <t>Hydrocortisone</t>
+  </si>
+  <si>
+    <t>Cortizone, Corticosteroid, Anti-inflammatory, NCLM</t>
+  </si>
+  <si>
+    <t>Morphine</t>
+  </si>
+  <si>
+    <t>MS Contin, Opioid Analgesic, Pain Relief, Schedule II</t>
+  </si>
+  <si>
+    <t>Risperidone</t>
+  </si>
+  <si>
+    <t>Risperdal, Anti-Psychotic, Mood Disorders, NCLM</t>
+  </si>
+  <si>
+    <t>Sitagliptin</t>
+  </si>
+  <si>
+    <t>Januvia, DPP-4 Inhibitor, Diabetes Agent, NCLM</t>
+  </si>
+  <si>
+    <t>Ethinyl Estradiol / Desogestrel</t>
+  </si>
+  <si>
+    <t>April/Azurette, Oral contraceptive, Pregnancy prevention/hormone regulation, NCLM</t>
+  </si>
+  <si>
+    <t>Levofloxacin</t>
+  </si>
+  <si>
+    <t>Levaquin, Fluoroquinolone Antibiotic, Bacterial Infection, NCLM</t>
+  </si>
+  <si>
+    <t>Acyclovir</t>
+  </si>
+  <si>
+    <t>Zovirax, Anti-viral, Viral infection, NCLM</t>
+  </si>
+  <si>
+    <t>Brimonidine Tartrate</t>
+  </si>
+  <si>
+    <t>Alphagan, Alpha agonist, Glaucoma, NCLM</t>
+  </si>
+  <si>
+    <t>Divalproex Sodium</t>
+  </si>
+  <si>
+    <t>Depakote, Anticonvulsant, Seizures/Mood disorders, NCLM</t>
+  </si>
+  <si>
+    <t>Meclizine Dramamine</t>
+  </si>
+  <si>
+    <t>Antivert, H1RA/Anti histamine, Allergies/Motion Sickness, OTC</t>
+  </si>
+  <si>
+    <t>Polyethylene Glycol 3350</t>
+  </si>
+  <si>
+    <t>Miralax, Laxative, Constipation, OTC</t>
+  </si>
+  <si>
+    <t>Liraglutide</t>
+  </si>
+  <si>
+    <t>Victoza, GLP-1 Agonist, Diabetes Agent, NCLM</t>
+  </si>
+  <si>
+    <t>Digoxin</t>
+  </si>
+  <si>
+    <t>Lanoxin, Cardiac Glycoside, Heart Failure, NCLM</t>
+  </si>
+  <si>
+    <t>Methylprednisolone</t>
+  </si>
+  <si>
+    <t>Medrol, Corticosteroid, Anti-inflammatory, NCLM</t>
+  </si>
+  <si>
+    <t>Omega-3-Acid Ethyl Esters</t>
+  </si>
+  <si>
+    <t>Lovaza, Omega-3 Fatty Acids, Cholesterol lowering, NCLM</t>
+  </si>
+  <si>
+    <t>Oseltamivir</t>
+  </si>
+  <si>
+    <t>Tamiflu, Anti-viral, Influenza treatment, NCLM</t>
+  </si>
+  <si>
+    <t>Amlodipine/Benazepril</t>
+  </si>
+  <si>
+    <t>Lotrel, Calcium Channel Blocker / ACEi, Antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Adalimumab</t>
+  </si>
+  <si>
+    <t>Humira, TNF-alpha blocker, Chron's/Ulcerative Colitis, NCLM</t>
   </si>
 </sst>
 </file>
@@ -1152,10 +1410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0FCFC7-BAF7-A940-AC4C-0AA1FB3561AA}">
-  <dimension ref="A1:B123"/>
+  <dimension ref="A1:B166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2148,6 +2406,350 @@
         <v>245</v>
       </c>
     </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/posts/Top 200 Medications/top200medications.xlsx
+++ b/posts/Top 200 Medications/top200medications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlmarquez/Desktop/PharmTech/PharmTech/posts/Top 200 Medications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D0240E-7B1E-584A-9D0D-9BF6A4474281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CFE49D-3AEE-0240-A0B1-AB9ED2C344FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{7748411B-C955-674A-BA9C-E9F86C794A2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
   <si>
     <t>Answer</t>
   </si>
@@ -1032,6 +1032,222 @@
   </si>
   <si>
     <t>Humira, TNF-alpha blocker, Chron's/Ulcerative Colitis, NCLM</t>
+  </si>
+  <si>
+    <t>Cyanocobalamin</t>
+  </si>
+  <si>
+    <t>Nascobal, Vitamin B12 Supplement, Vitamin B12 Supplement, NCLM</t>
+  </si>
+  <si>
+    <t>Chlorthalidone</t>
+  </si>
+  <si>
+    <t>Hygroton, Thiazide Diuretic, Antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Carbamazepine</t>
+  </si>
+  <si>
+    <t>Tegretol, Anti-Convulsant, Seizures, NCLM</t>
+  </si>
+  <si>
+    <t>Pramipexole</t>
+  </si>
+  <si>
+    <t>Mirapex, Dopamine Agonist, Parkinson's, NCLM</t>
+  </si>
+  <si>
+    <t>Fluconazole</t>
+  </si>
+  <si>
+    <t>Diflucan, Anti-fungal, Fungal infections, NCLM</t>
+  </si>
+  <si>
+    <t>Magnesium</t>
+  </si>
+  <si>
+    <t>Uro-Mag, Magnesium Supplementation, Magnesium Supplementation, NCLM</t>
+  </si>
+  <si>
+    <t>Glyburide</t>
+  </si>
+  <si>
+    <t>Diabeta, Sulfonylurea, Diabetes Agent, NCLM</t>
+  </si>
+  <si>
+    <t>Ethinyl Estradiol / Etonogestrel</t>
+  </si>
+  <si>
+    <t>Nuvaring, Vaginal Contraceptive, Pregnancy Prevention, NCLM</t>
+  </si>
+  <si>
+    <t>Lithium</t>
+  </si>
+  <si>
+    <t>Lithbod, Anti-Psychotic, Mood Disorders, NCLM</t>
+  </si>
+  <si>
+    <t>Nortriptyline</t>
+  </si>
+  <si>
+    <t>Pamelor, Tri-Cyclic Antidepressant, Depression, NCLM</t>
+  </si>
+  <si>
+    <t>Albuterol / Ipratropium</t>
+  </si>
+  <si>
+    <t>Combivent, Inhaled Beta-2 Agonist / AntiCholinergics, Asthma Treatment, NCLM</t>
+  </si>
+  <si>
+    <t>Levocetirizine</t>
+  </si>
+  <si>
+    <t>Xyzal, H1RA, AntiHistamine, Allergies, OTC</t>
+  </si>
+  <si>
+    <t>Methocarbamol</t>
+  </si>
+  <si>
+    <t>Robaxin, Muscle Relaxer, Pain Relief, NCLM</t>
+  </si>
+  <si>
+    <t>Dicyclomine</t>
+  </si>
+  <si>
+    <t>Bentyl, AntiCholinergics, Irritable Bowel Syndrome, NCLM</t>
+  </si>
+  <si>
+    <t>Carbidopa / Levodopa</t>
+  </si>
+  <si>
+    <t>Sinemet, Dopamine Agonist, Parkinson's, NCLM</t>
+  </si>
+  <si>
+    <t>Nitrofurantoin</t>
+  </si>
+  <si>
+    <t>Macrobid, Antibiotic, Bacterial Urinary Tract Infection Treatment, NCLM</t>
+  </si>
+  <si>
+    <t>Lansoprazole</t>
+  </si>
+  <si>
+    <t>Prevacid, PPI, Acid Reflux/GERD, OTC and NCLM (strength)</t>
+  </si>
+  <si>
+    <t>Mirabegron</t>
+  </si>
+  <si>
+    <t>Myrbetriq, Beta-3 Agonsit, Overactive bladder, NCLM</t>
+  </si>
+  <si>
+    <t>Terazosin</t>
+  </si>
+  <si>
+    <t>Hytrin, Alpha-Blocker, Hypertension/Enlarged Prostate, NCLM</t>
+  </si>
+  <si>
+    <t>Mometasome</t>
+  </si>
+  <si>
+    <t>Nasonex, Corticosteroid, Allergies / Anti-inflammatory, OTC</t>
+  </si>
+  <si>
+    <t>Mupirocin</t>
+  </si>
+  <si>
+    <t>Bactroban, Topical antibiotic, Bacterial infection, NCLM</t>
+  </si>
+  <si>
+    <t>Dexmethylphenidate</t>
+  </si>
+  <si>
+    <t>Focalin, Stimulant, ADHD, Schedule II</t>
+  </si>
+  <si>
+    <t>Canagliflozin</t>
+  </si>
+  <si>
+    <t>Invokana, SGLT-2 inhibitor, Diabetes agent, NCLM</t>
+  </si>
+  <si>
+    <t>Progesterone</t>
+  </si>
+  <si>
+    <t>Prometrium, Female Hormone Therapy, Female Hormone Therapy, NCLM</t>
+  </si>
+  <si>
+    <t>Cefdinir</t>
+  </si>
+  <si>
+    <t>Omnicef, Cephalosporin Antibiotics, Bacterial Infections, NCLM</t>
+  </si>
+  <si>
+    <t>Acetaminophen / Butalbital</t>
+  </si>
+  <si>
+    <t>Bupap, Pain reliever / relaxant, Migraine relief, Schedule III</t>
+  </si>
+  <si>
+    <t>Budesonide</t>
+  </si>
+  <si>
+    <t>Pulmicort, Inhaled corticosteroid, asthma treatment, NCLM</t>
+  </si>
+  <si>
+    <t>Menthol</t>
+  </si>
+  <si>
+    <t>Bengay / Icy hot, Pain reliever, Pain reliever, OTC</t>
+  </si>
+  <si>
+    <t>Amiodarone</t>
+  </si>
+  <si>
+    <t>Cordarone, Class III Anti-Arrythmic, Arrythmias, NCLM</t>
+  </si>
+  <si>
+    <t>Norgestrel</t>
+  </si>
+  <si>
+    <t>Opill, Oral Contraceptive, Pregnancy prevention, OTC</t>
+  </si>
+  <si>
+    <t>Linagliptin</t>
+  </si>
+  <si>
+    <t>Tradjenta, DPP-4 Inhibitor, Diabetes Agents, NCLM</t>
+  </si>
+  <si>
+    <t>Escitalopram</t>
+  </si>
+  <si>
+    <t>Lexapro, SSRI, Antidepressant, NCLM</t>
+  </si>
+  <si>
+    <t>Alprazolam</t>
+  </si>
+  <si>
+    <t>Xanax, Benzodiazepine, Anxiety, Schedule IV</t>
+  </si>
+  <si>
+    <t>Bupropion</t>
+  </si>
+  <si>
+    <t>Wellbutrin, Antidepressant, Depression, NCLM</t>
+  </si>
+  <si>
+    <t>Prednisone</t>
+  </si>
+  <si>
+    <t>Deltasone, Corticosteroid, Inflammation, NCLM</t>
+  </si>
+  <si>
+    <t>Dupilumab</t>
+  </si>
+  <si>
+    <t>Dupixent, Interleukin inhibitor, Eczema / Asthma / COPD, NCLM</t>
   </si>
 </sst>
 </file>
@@ -1410,10 +1626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0FCFC7-BAF7-A940-AC4C-0AA1FB3561AA}">
-  <dimension ref="A1:B166"/>
+  <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2750,6 +2966,294 @@
         <v>331</v>
       </c>
     </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/posts/Top 200 Medications/top200medications.xlsx
+++ b/posts/Top 200 Medications/top200medications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlmarquez/Desktop/PharmTech/PharmTech/posts/Top 200 Medications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CFE49D-3AEE-0240-A0B1-AB9ED2C344FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094D9AE6-8D8B-734C-AA75-FDABDEEEE7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{7748411B-C955-674A-BA9C-E9F86C794A2E}"/>
   </bookViews>
@@ -36,23 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="477">
   <si>
     <t>Answer</t>
   </si>
   <si>
-    <t>Generic: Lisinopril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand: Prinivil. Class: ACEi. Indication: Antihypertensive. Schedule: NCLM. </t>
-  </si>
-  <si>
     <t>Question</t>
   </si>
   <si>
-    <t>Generic: Metoprolol Succinate ER</t>
-  </si>
-  <si>
     <t>Metformin</t>
   </si>
   <si>
@@ -197,9 +188,6 @@
     <t>Furosemide</t>
   </si>
   <si>
-    <t>Lasix, Loop pf Henle diuretic, Antihypertensive, NCLM</t>
-  </si>
-  <si>
     <t>Acetaminophen</t>
   </si>
   <si>
@@ -263,9 +251,6 @@
     <t>Propanolol</t>
   </si>
   <si>
-    <t>Inderal, beta-blocker, antihypertensive, NCLM</t>
-  </si>
-  <si>
     <t>Aspirin</t>
   </si>
   <si>
@@ -329,15 +314,9 @@
     <t>Metronidazole</t>
   </si>
   <si>
-    <t>Flagyl, antibiotic, Bacterial infection, NCLM</t>
-  </si>
-  <si>
     <t>Loratadine</t>
   </si>
   <si>
-    <t>Claritin, H1RA/anti-histamine, Allergies, OTC</t>
-  </si>
-  <si>
     <t>Lamotrigine</t>
   </si>
   <si>
@@ -395,9 +374,6 @@
     <t>Ethinyl Estradiol / Norgestimate</t>
   </si>
   <si>
-    <t>Ortho Tri-Cylen, oral contraceptive, Pregnancy prevention/hormone regulation, NCLM</t>
-  </si>
-  <si>
     <t>Glimepiride</t>
   </si>
   <si>
@@ -413,9 +389,6 @@
     <t>Cetirizine</t>
   </si>
   <si>
-    <t>Zyrtec, H1RA/Anti-histamine, Allergies, OTC</t>
-  </si>
-  <si>
     <t>Losartan / Hydrochlorothiazide</t>
   </si>
   <si>
@@ -449,15 +422,9 @@
     <t>Ethinyl Estradiol / Drosperinone</t>
   </si>
   <si>
-    <t>Yaz/Yazmin/Gianvi / Nikki, oral contraceptive, Pregnancy prevention/hormone regulation, NCLM</t>
-  </si>
-  <si>
     <t>Hydroxyzine</t>
   </si>
   <si>
-    <t>Atarax/Vistaril, H1RA/antihistamine, Allergies, NCLM</t>
-  </si>
-  <si>
     <t>Oxybutynin</t>
   </si>
   <si>
@@ -539,9 +506,6 @@
     <t>Triamcinolone</t>
   </si>
   <si>
-    <t>Kenalog, Corticosteroid, anti-inflammatory, NCLM</t>
-  </si>
-  <si>
     <t>Benazepril</t>
   </si>
   <si>
@@ -587,9 +551,6 @@
     <t>Diltiazem</t>
   </si>
   <si>
-    <t>Cardizem, Calcium channel blocker, antihypertensive, NCLM</t>
-  </si>
-  <si>
     <t>Quetiapine Fumarate</t>
   </si>
   <si>
@@ -599,9 +560,6 @@
     <t>Topiramate</t>
   </si>
   <si>
-    <t>Topamax, Antoconvulsant, Seizures/Migraines, NCLM</t>
-  </si>
-  <si>
     <t>Bacitracine/Neomycin / Polymyxin B</t>
   </si>
   <si>
@@ -641,9 +599,6 @@
     <t>Levetiracetam</t>
   </si>
   <si>
-    <t>Keppra, Anti-Convulsant, Seizures, NCLM</t>
-  </si>
-  <si>
     <t>Clindamycin</t>
   </si>
   <si>
@@ -755,9 +710,6 @@
     <t>Verapamil</t>
   </si>
   <si>
-    <t>Verelan, Calcium channel blocker, antihypertensive, NCLM</t>
-  </si>
-  <si>
     <t>Timolol</t>
   </si>
   <si>
@@ -827,9 +779,6 @@
     <t>Promethazine</t>
   </si>
   <si>
-    <t>Phenergan, H1RA/Anti-Histamine, Nausea/Vomiting / Allergies, NCLM</t>
-  </si>
-  <si>
     <t>Benzonatate</t>
   </si>
   <si>
@@ -845,9 +794,6 @@
     <t>Doxazosin</t>
   </si>
   <si>
-    <t>Cardura, Alpha-1 Blocker, Enlraged Prostate/Anti hypertensive, NCLM</t>
-  </si>
-  <si>
     <t>Ezetimibe</t>
   </si>
   <si>
@@ -923,9 +869,6 @@
     <t>Nirmatrelvir/ritonavir</t>
   </si>
   <si>
-    <t>Paxlovid, Antiviral, COVID, NCLM</t>
-  </si>
-  <si>
     <t>Hydrocortisone</t>
   </si>
   <si>
@@ -983,9 +926,6 @@
     <t>Meclizine Dramamine</t>
   </si>
   <si>
-    <t>Antivert, H1RA/Anti histamine, Allergies/Motion Sickness, OTC</t>
-  </si>
-  <si>
     <t>Polyethylene Glycol 3350</t>
   </si>
   <si>
@@ -1025,9 +965,6 @@
     <t>Amlodipine/Benazepril</t>
   </si>
   <si>
-    <t>Lotrel, Calcium Channel Blocker / ACEi, Antihypertensive, NCLM</t>
-  </si>
-  <si>
     <t>Adalimumab</t>
   </si>
   <si>
@@ -1103,9 +1040,6 @@
     <t>Levocetirizine</t>
   </si>
   <si>
-    <t>Xyzal, H1RA, AntiHistamine, Allergies, OTC</t>
-  </si>
-  <si>
     <t>Methocarbamol</t>
   </si>
   <si>
@@ -1248,13 +1182,298 @@
   </si>
   <si>
     <t>Dupixent, Interleukin inhibitor, Eczema / Asthma / COPD, NCLM</t>
+  </si>
+  <si>
+    <t>Lisinopril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prinivil, ACEi, Antihypertensive, NCLM. </t>
+  </si>
+  <si>
+    <t>Lasix, Loop of Henle diuretic, Antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Metoprolol Succinate Extended Release</t>
+  </si>
+  <si>
+    <t>Cardizem, Calcium Channel Blocker, Antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Verelan, Calcium Channel Blocker, Antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Inderal, Beta-blocker, Antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>CLASS: ACE INHIBITORS</t>
+  </si>
+  <si>
+    <t>Lotrel, ACEi / Calcium Channel Blocker, Antihypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>CLASS: BETA-BLOCKERS</t>
+  </si>
+  <si>
+    <t>CLASS: ARB</t>
+  </si>
+  <si>
+    <t>CLASS: DIURETICS</t>
+  </si>
+  <si>
+    <t>CLASS: ALPHA-2 AGONISTS</t>
+  </si>
+  <si>
+    <t>CLASS: ALPHA-2 CALCIUM CHANNEL BLOCKER</t>
+  </si>
+  <si>
+    <t>CLASS: HMG-CoA REDUCTASE INHIBITOR</t>
+  </si>
+  <si>
+    <t>INDICATION: CHOLESTEROL LOWERING</t>
+  </si>
+  <si>
+    <t>INDICATION: ANTIDEPRESSANT</t>
+  </si>
+  <si>
+    <t>CLASS: SSRI</t>
+  </si>
+  <si>
+    <t>CLASS: SNRI</t>
+  </si>
+  <si>
+    <t>CLASS: TRI-CYCLIC ANTIDEPRESSANTS</t>
+  </si>
+  <si>
+    <t>Kenalog, Corticosteroid, Anti-inflammatory, NCLM</t>
+  </si>
+  <si>
+    <t>Cardura, Alpha-1 Blocker, Enlarged Prostate/Anti hypertensive, NCLM</t>
+  </si>
+  <si>
+    <t>Topamax, Anticonvulsant, Seizures/Migraines, NCLM</t>
+  </si>
+  <si>
+    <t>Keppra, AntiConvulsant, Seizures, NCLM</t>
+  </si>
+  <si>
+    <t>Paxlovid, Anti-viral, COVID, NCLM</t>
+  </si>
+  <si>
+    <t>INDICATION: HYPERTENSION</t>
+  </si>
+  <si>
+    <t>INDICATION: ARRYTHMIA</t>
+  </si>
+  <si>
+    <t>CLASS:</t>
+  </si>
+  <si>
+    <t>CLASS: NITRATES / VASODILATOR</t>
+  </si>
+  <si>
+    <t>INDICATION: ANTICOAGULATION / BLOOD THINNERS</t>
+  </si>
+  <si>
+    <t>CLASS: MIXED</t>
+  </si>
+  <si>
+    <t>INDICATION: MOOD DISORDERS</t>
+  </si>
+  <si>
+    <t>CLASS: ANTI-PSYCHOTIC</t>
+  </si>
+  <si>
+    <t>INDICATION: ANXIETY / SEDATIVE</t>
+  </si>
+  <si>
+    <t>CLASS: BENZODIAZEPINE</t>
+  </si>
+  <si>
+    <t>INDICATION: ADHD</t>
+  </si>
+  <si>
+    <t>CLASS: STIMULANTS</t>
+  </si>
+  <si>
+    <t>INDICATIION: SEIZURES / ANTICONVULSANTS</t>
+  </si>
+  <si>
+    <t>CLASS: ANTI-CONVULSANTS</t>
+  </si>
+  <si>
+    <t>INDICATION: PARKINSON'S DISEASE</t>
+  </si>
+  <si>
+    <t>CLASS: DOPAMINE AGONIST</t>
+  </si>
+  <si>
+    <t>INDICATION: ALZHEIMER'S DISEASE</t>
+  </si>
+  <si>
+    <t>CLASS: 5HT1 Agonist</t>
+  </si>
+  <si>
+    <t>INDICATION: ASTHMA</t>
+  </si>
+  <si>
+    <t>INDICATION: ALLERGIES</t>
+  </si>
+  <si>
+    <t>INDICATION: COUGH</t>
+  </si>
+  <si>
+    <t>INDICATION: BACTERIAL INFECTIONS</t>
+  </si>
+  <si>
+    <t>INDICATION: VIRAL INFECTIONS</t>
+  </si>
+  <si>
+    <t>INDICATION: FUNGAL INFECTIONS</t>
+  </si>
+  <si>
+    <t>INDICATION: ACID REFLUX / GERD</t>
+  </si>
+  <si>
+    <t>INDICATION: CROHN'S / ULECRATIVE COLITIS</t>
+  </si>
+  <si>
+    <t>INDICATION: BOWEL DISORDERS</t>
+  </si>
+  <si>
+    <t>INDICATION: DIABETES</t>
+  </si>
+  <si>
+    <t>INDICATION: HYPOTHYROIDISM</t>
+  </si>
+  <si>
+    <t>INDICATION: PREGNANCY PREVENTION</t>
+  </si>
+  <si>
+    <t>INDICATION: OSTEOPOROSIS</t>
+  </si>
+  <si>
+    <t>INDICATION: SUPPLEMENTS</t>
+  </si>
+  <si>
+    <t>INDICATION: HORMONE SUPPLEMENT</t>
+  </si>
+  <si>
+    <t>INDICATION: PAIN / SEIZURES</t>
+  </si>
+  <si>
+    <t>INDICATION: INFLAMMATORY</t>
+  </si>
+  <si>
+    <t>INDICATION: RHEUMATOID ARTHRITIS</t>
+  </si>
+  <si>
+    <t>INDICATION: GOUT</t>
+  </si>
+  <si>
+    <t>INDICATION: MUSCLE RELAXANT</t>
+  </si>
+  <si>
+    <t>INDICATION: ENLARGED PROSTATE</t>
+  </si>
+  <si>
+    <t>INDICATION: OVERREACTIVE BLADDER</t>
+  </si>
+  <si>
+    <t>INDICATION: GLAUCOMA</t>
+  </si>
+  <si>
+    <t>CLASS: CLASS III ANTI-ARRYTHMIC</t>
+  </si>
+  <si>
+    <t>INDICATION: ANGINA / HEART FAILURE</t>
+  </si>
+  <si>
+    <t>CLASS: OPIOIDS</t>
+  </si>
+  <si>
+    <t>INDICATION: PAIN / INFLAMMATION</t>
+  </si>
+  <si>
+    <t>INDICATION: PAIN RELIEF</t>
+  </si>
+  <si>
+    <t>CLASS: NSAID (NON STEROIDAL ANTI-INFLAMMATORY DRUG</t>
+  </si>
+  <si>
+    <t>CLASS: ANTICONVULSANT</t>
+  </si>
+  <si>
+    <t>CLASS: OTHERS</t>
+  </si>
+  <si>
+    <t>CLASS: CORTICOSTEROID</t>
+  </si>
+  <si>
+    <t>INDICATION: MIGRAINE RELIEF</t>
+  </si>
+  <si>
+    <t>CLASS: ANTI-HISTAMINE</t>
+  </si>
+  <si>
+    <t>Claritin, H1RA / Anti-histamine, Allergies, OTC</t>
+  </si>
+  <si>
+    <t>Zyrtec, H1RA / Anti-histamine, Allergies, OTC</t>
+  </si>
+  <si>
+    <t>Antivert, H1RA / Anti-histamine, Allergies/Motion Sickness, OTC</t>
+  </si>
+  <si>
+    <t>Atarax/Vistaril, H1RA / Anti-histamine, Allergies, NCLM</t>
+  </si>
+  <si>
+    <t>Phenergan, H1RA / Anti-histamine, Nausea / Vomiting / Allergies, NCLM</t>
+  </si>
+  <si>
+    <t>Xyzal, H1RA, Anti-histamine, Allergies, OTC</t>
+  </si>
+  <si>
+    <t>CLASS: ANTITUSSIVE</t>
+  </si>
+  <si>
+    <t>Flagyl, Antibiotic, Bacterial infection, NCLM</t>
+  </si>
+  <si>
+    <t>CLASS: ANTI-VIRAL</t>
+  </si>
+  <si>
+    <t>CLASS: ANTI-FUNGAL</t>
+  </si>
+  <si>
+    <t>CLASS: PPI (PROTON PUMP INHIBITOR) and H2RA</t>
+  </si>
+  <si>
+    <t>CLASS: THYROID HORMONE</t>
+  </si>
+  <si>
+    <t>CLASS: ORAL CONTRACEPTIVE</t>
+  </si>
+  <si>
+    <t>CLASS: VAGINAL CONTRACEPTIVE</t>
+  </si>
+  <si>
+    <t>Ortho Tri-Cylen, Oral contraceptive, Pregnancy prevention/hormone regulation, NCLM</t>
+  </si>
+  <si>
+    <t>Yaz/Yazmin/Gianvi / Nikki, Oral contraceptive, Pregnancy prevention/hormone regulation, NCLM</t>
+  </si>
+  <si>
+    <t>CLASS: HORMONES</t>
+  </si>
+  <si>
+    <t>CLASS: MUSCLE RELAXANT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1263,9 +1482,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1289,9 +1516,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1626,1633 +1854,2045 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0FCFC7-BAF7-A940-AC4C-0AA1FB3561AA}">
-  <dimension ref="A1:B202"/>
+  <dimension ref="A1:B254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A252" sqref="A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.5" customWidth="1"/>
-    <col min="2" max="2" width="138.6640625" customWidth="1"/>
+    <col min="1" max="1" width="62.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="138.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>63</v>
+      <c r="A32" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>65</v>
+      <c r="A33" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>67</v>
+      <c r="A34" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>407</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>77</v>
+      <c r="A39" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>397</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="A41" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="1" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>121</v>
+      <c r="A61" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>125</v>
+      <c r="A63" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>139</v>
+      <c r="A70" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>140</v>
+        <v>451</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>141</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>153</v>
+      <c r="A77" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>154</v>
+        <v>441</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>159</v>
+      <c r="B80" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>161</v>
+      <c r="A81" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>163</v>
+      <c r="A82" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>165</v>
+      <c r="A83" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>167</v>
+      <c r="A84" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>171</v>
+      <c r="A86" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="A87" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>181</v>
+      <c r="B91" s="2" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>183</v>
+      <c r="A92" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>184</v>
+        <v>398</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>185</v>
+        <v>399</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>190</v>
+        <v>54</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>191</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>193</v>
+      <c r="A97" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>195</v>
+      <c r="A98" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>196</v>
+        <v>398</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>197</v>
+        <v>400</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>199</v>
+      <c r="A100" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>201</v>
+      <c r="A101" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>202</v>
+        <v>398</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>203</v>
+        <v>401</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>205</v>
+      <c r="A103" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>207</v>
+      <c r="A104" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>209</v>
+      <c r="A105" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>211</v>
+      <c r="A106" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>213</v>
+      <c r="A107" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>215</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>216</v>
+        <v>413</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>217</v>
+        <v>414</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>219</v>
+      <c r="A110" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>221</v>
+      <c r="A111" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>223</v>
+      <c r="A112" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>225</v>
+      <c r="A113" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>227</v>
+        <v>415</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>229</v>
+      <c r="A115" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>231</v>
+      <c r="A116" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>233</v>
+      <c r="A117" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>235</v>
+      <c r="A118" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>237</v>
+      <c r="A119" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>239</v>
+      <c r="A120" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>241</v>
+      <c r="A121" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>243</v>
+      <c r="A122" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>244</v>
+        <v>417</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>245</v>
+        <v>418</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>263</v>
+      <c r="B132" s="2" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>265</v>
+      <c r="A133" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>267</v>
+      <c r="A134" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>269</v>
+      <c r="A135" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>271</v>
+      <c r="A136" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>272</v>
+        <v>29</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>273</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>275</v>
+      <c r="A138" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>277</v>
+      <c r="A139" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>279</v>
+      <c r="A140" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>281</v>
+      <c r="A141" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>282</v>
+        <v>31</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>283</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>285</v>
+      <c r="A143" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B144" s="1" t="s">
+      <c r="A144" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
+      <c r="B150" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B145" s="1" t="s">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
+      <c r="B158" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B159" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B160" s="1" t="s">
+      <c r="A160" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
+      <c r="B162" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>323</v>
-      </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>325</v>
+      <c r="A163" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>326</v>
+        <v>13</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>327</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>328</v>
+        <v>41</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>329</v>
+        <v>42</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>331</v>
+      <c r="A166" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>333</v>
+      <c r="A167" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>335</v>
+      <c r="A168" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>337</v>
+      <c r="A169" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>338</v>
+        <v>2</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>339</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>341</v>
+      <c r="A171" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>342</v>
+        <v>56</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>343</v>
+        <v>57</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>345</v>
+      <c r="A173" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>347</v>
+      <c r="A174" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>349</v>
+      <c r="A175" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>351</v>
+      <c r="A176" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>353</v>
+      <c r="A177" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B184" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>369</v>
+      <c r="A185" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>370</v>
+        <v>435</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>371</v>
+        <v>470</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>372</v>
+        <v>19</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>375</v>
+      <c r="A188" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>376</v>
+        <v>436</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>377</v>
+        <v>471</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>379</v>
+      <c r="A190" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B253" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>403</v>
-      </c>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="2"/>
+      <c r="B254" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
